--- a/biology/Zoologie/Bowie_rufisternis/Bowie_rufisternis.xlsx
+++ b/biology/Zoologie/Bowie_rufisternis/Bowie_rufisternis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bowie rufisternis est une espèce d'araignées aranéomorphes de la famille des Ctenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bowie rufisternis est une espèce d'araignées aranéomorphes de la famille des Ctenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Bretagne en Papouasie-Nouvelle-Guinée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Bretagne en Papouasie-Nouvelle-Guinée.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 12 mm[2].
-La carapace du mâle décrit par Jäger en 2022 mesure 6,1 mm de long sur 4,9 mm et l'abdomen 6,0 mm de long sur 3,6 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 12 mm.
+La carapace du mâle décrit par Jäger en 2022 mesure 6,1 mm de long sur 4,9 mm et l'abdomen 6,0 mm de long sur 3,6 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Ctenus rufisternis par Pocock en 1898. Elle est placée dans le genre Bowie par Jäger en 2022[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Ctenus rufisternis par Pocock en 1898. Elle est placée dans le genre Bowie par Jäger en 2022.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pocock, 1898 : « Scorpions, Pedipalpi and spiders collected by Dr Willey in New Britain, the Solomon Islands, Loyalty Islands, etc. » Zoological results based on material from New Britain, New Guinea, Loyalty Islands and elsewhere, collected during the years 1895, 1896 and 1897, London, vol. 1 p. 95-120 (texte intégral).</t>
         </is>
